--- a/Data/top_city_pairs_population.xlsx
+++ b/Data/top_city_pairs_population.xlsx
@@ -534,10 +534,8 @@
       <c r="J2" t="n">
         <v>496.744786620118</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="K2" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="3">
@@ -581,10 +579,8 @@
       <c r="J3" t="n">
         <v>280.920383321637</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="K3" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="4">
@@ -628,10 +624,8 @@
       <c r="J4" t="n">
         <v>801.822877864122</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="K4" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="5">
@@ -675,10 +669,8 @@
       <c r="J5" t="n">
         <v>380.204645403803</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="K5" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="6">
@@ -722,10 +714,8 @@
       <c r="J6" t="n">
         <v>350.848727527536</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="K6" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="7">
@@ -769,10 +759,8 @@
       <c r="J7" t="n">
         <v>902.7331456345401</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="K7" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="8">
@@ -816,10 +804,8 @@
       <c r="J8" t="n">
         <v>974.051693968597</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="K8" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="9">
@@ -863,10 +849,8 @@
       <c r="J9" t="n">
         <v>418.508828796069</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="K9" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="10">
@@ -910,10 +894,8 @@
       <c r="J10" t="n">
         <v>545.4343626416239</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="K10" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="11">
@@ -957,10 +939,8 @@
       <c r="J11" t="n">
         <v>780.8513444851029</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="K11" t="n">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
@@ -1080,10 +1060,8 @@
       <c r="J2" t="n">
         <v>496.744786620118</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="K2" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="3">
@@ -1127,10 +1105,8 @@
       <c r="J3" t="n">
         <v>280.920383321637</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="K3" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="4">
@@ -1174,10 +1150,8 @@
       <c r="J4" t="n">
         <v>801.822877864122</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="K4" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="5">
@@ -1221,10 +1195,8 @@
       <c r="J5" t="n">
         <v>380.204645403803</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="K5" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="6">
@@ -1268,10 +1240,8 @@
       <c r="J6" t="n">
         <v>902.7331456345401</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="K6" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="7">
@@ -1315,10 +1285,8 @@
       <c r="J7" t="n">
         <v>350.848727527536</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="K7" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="8">
@@ -1362,10 +1330,8 @@
       <c r="J8" t="n">
         <v>418.508828796069</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="K8" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="9">
@@ -1409,10 +1375,8 @@
       <c r="J9" t="n">
         <v>545.4343626416239</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="K9" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="10">
@@ -1456,10 +1420,8 @@
       <c r="J10" t="n">
         <v>353.555603023537</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="K10" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="11">
@@ -1503,10 +1465,8 @@
       <c r="J11" t="n">
         <v>780.8513444851029</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="K11" t="n">
+        <v>2017</v>
       </c>
     </row>
   </sheetData>
@@ -1626,10 +1586,8 @@
       <c r="J2" t="n">
         <v>496.744786620118</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="K2" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="3">
@@ -1673,10 +1631,8 @@
       <c r="J3" t="n">
         <v>280.920383321637</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="K3" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="4">
@@ -1720,10 +1676,8 @@
       <c r="J4" t="n">
         <v>801.822877864122</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="K4" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="5">
@@ -1767,10 +1721,8 @@
       <c r="J5" t="n">
         <v>380.204645403803</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="K5" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="6">
@@ -1814,10 +1766,8 @@
       <c r="J6" t="n">
         <v>902.7331456345401</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="K6" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="7">
@@ -1861,10 +1811,8 @@
       <c r="J7" t="n">
         <v>350.848727527536</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="K7" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="8">
@@ -1908,10 +1856,8 @@
       <c r="J8" t="n">
         <v>418.508828796069</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="K8" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="9">
@@ -1955,10 +1901,8 @@
       <c r="J9" t="n">
         <v>974.051693968597</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="K9" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="10">
@@ -2002,10 +1946,8 @@
       <c r="J10" t="n">
         <v>545.4343626416239</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="K10" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="11">
@@ -2049,10 +1991,8 @@
       <c r="J11" t="n">
         <v>353.555603023537</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="K11" t="n">
+        <v>2018</v>
       </c>
     </row>
   </sheetData>
@@ -2172,10 +2112,8 @@
       <c r="J2" t="n">
         <v>496.744786620118</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="K2" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="3">
@@ -2219,10 +2157,8 @@
       <c r="J3" t="n">
         <v>280.920383321637</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="K3" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="4">
@@ -2266,10 +2202,8 @@
       <c r="J4" t="n">
         <v>801.822877864122</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="K4" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="5">
@@ -2313,10 +2247,8 @@
       <c r="J5" t="n">
         <v>380.204645403803</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="K5" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="6">
@@ -2360,10 +2292,8 @@
       <c r="J6" t="n">
         <v>902.7331456345401</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="K6" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="7">
@@ -2407,10 +2337,8 @@
       <c r="J7" t="n">
         <v>350.848727527536</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="K7" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="8">
@@ -2454,10 +2382,8 @@
       <c r="J8" t="n">
         <v>418.508828796069</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="K8" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="9">
@@ -2501,10 +2427,8 @@
       <c r="J9" t="n">
         <v>545.4343626416239</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="K9" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="10">
@@ -2548,10 +2472,8 @@
       <c r="J10" t="n">
         <v>353.555603023537</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="K10" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="11">
@@ -2595,10 +2517,8 @@
       <c r="J11" t="n">
         <v>780.8513444851029</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="K11" t="n">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
